--- a/biology/Histoire de la zoologie et de la botanique/Johann_Ferdinand_Adam_von_Pernau/Johann_Ferdinand_Adam_von_Pernau.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Ferdinand_Adam_von_Pernau/Johann_Ferdinand_Adam_von_Pernau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Ferdinand Adam von Pernau, comte de Rosenau (7 novembre 1660, Steinach en Autriche - 14 octobre 1731 à Rosenau), est un ornithologue autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille, de confession luthérienne doit quitter l'Autriche pour s'installer en Franconie. Il entre à l'université d'Altdorf, près de Nuremberg, en Bavière à 16 ans. Homme du monde, il voyage plusieurs années en Italie, en France et aux Pays-Bas et fréquente notamment la cour du duc de Cobourg et de Gotha. Il s'intéresse à la vie intellectuelle de son temps et fait paraître les premières traductions en allemand de l'œuvre de Nicolas Boileau (1636-1711) et de Madeleine de Scudéry (1607-1701). Il se marie en 1692 avec Maria Elisabeth Hendt von Römingsdorff. Il acquiert alors un château à Rosenau, près de Cobourg, où il demeurera jusqu'à sa mort.
 Passionné par les oiseaux, il construit de vastes volières où il peut élever de nombreuses espèces. Connaissant bien le comportement des oiseaux qu'il a observés dans la nature, il s'ingénie à les domestiquer : il en libère certains qui reviennent vers lui après un survol de la région.
